--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923686D-1393-42FD-9537-0F6FCA9CEC92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298E00B-C28E-4B50-8C51-263FF80B509B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>*?y</t>
   </si>
@@ -149,6 +149,39 @@
   </si>
   <si>
     <t>216. Combination Sum III</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>45. Jump Game II</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>考察数学理解能力，从后往前查，如果i-1 &lt; I 则锁定该数字，再从此处往后找第一个比i-1大的数，两数交换，再把后面这排底儿朝头换一把，OK</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>二分查找变种，取中间元素后需要先判断哪边为有序区间</t>
+  </si>
+  <si>
+    <t>81. Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>有了重复元素后，有几率存在最后元素跟中间元素相等，则无法判断哪个区间有序，需排除最后一个元素重新查找，时间复杂度最坏退到n</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
   </si>
 </sst>
 </file>
@@ -485,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +530,7 @@
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,7 +599,7 @@
       <c r="D5" s="4">
         <v>43394</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -583,7 +616,7 @@
       <c r="D6" s="4">
         <v>43394</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -600,7 +633,7 @@
       <c r="D7" s="4">
         <v>43394</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -645,7 +678,7 @@
       <c r="D10" s="4">
         <v>43394</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -676,7 +709,7 @@
       <c r="D12" s="4">
         <v>43394</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -735,7 +768,7 @@
       <c r="D16" s="4">
         <v>43396</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -808,7 +841,7 @@
       <c r="D21" s="4">
         <v>43397</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -838,6 +871,98 @@
       </c>
       <c r="D23" s="4">
         <v>43397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43398</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43398</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43398</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43398</v>
       </c>
     </row>
   </sheetData>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298E00B-C28E-4B50-8C51-263FF80B509B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE5152-CFB8-427D-9307-2259CB4B5C2F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
   <si>
     <t>*?y</t>
   </si>
@@ -163,9 +163,6 @@
     <t>31. Next Permutation</t>
   </si>
   <si>
-    <t>考察数学理解能力，从后往前查，如果i-1 &lt; I 则锁定该数字，再从此处往后找第一个比i-1大的数，两数交换，再把后面这排底儿朝头换一把，OK</t>
-  </si>
-  <si>
     <t>33. Search in Rotated Sorted Array</t>
   </si>
   <si>
@@ -182,6 +179,201 @@
   </si>
   <si>
     <t>35. Search Insert Position</t>
+  </si>
+  <si>
+    <t>37. Sudoku Solver</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>使用回溯法，从0,0开始，找到第一个 ' . ' 的位置row和col，然后计算下个位置的row，col。从1到9尝试是否满足填入条件，满足则从下个位置开始继续尝试，递归调用，不满足则返回false，上层调用替换回' . '，继续尝试下个数字，当尝试row&gt; 8时说明尝试到了最后 均可，则此数独有解</t>
+  </si>
+  <si>
+    <t>38. Count and Say</t>
+  </si>
+  <si>
+    <t>Recursive</t>
+  </si>
+  <si>
+    <t>41. First Missing Positive1</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>限制了时间，空间复杂度，使用数组本身作为hashtable, a[i] = i+1, 循环数组，将所有元素放入对应位置，再次遍历，第一个不合要求的便是答案</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>每个位置存储水的能力是左边最高值与右边最高值取较低一个值然后减去自身高度</t>
+  </si>
+  <si>
+    <t>43. Multiply Strings</t>
+  </si>
+  <si>
+    <t>44. Wildcard Matching</t>
+  </si>
+  <si>
+    <t>类似于第10题。初始化dp，第一排中如有*，则等于前一个匹配。然后m，n遍历，字符或者为？直接=前一项状态，*的话全匹配，等于任何前一项状态</t>
+  </si>
+  <si>
+    <t>25. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>原地坐标翻转</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>构造字典，输出value</t>
+  </si>
+  <si>
+    <t>51. N-Queens</t>
+  </si>
+  <si>
+    <t>52. N-Queens II</t>
+  </si>
+  <si>
+    <t>难点1在于数据结构的选用，巧妙借助数组下标作为行数，值为列数 2. 合理验证中对角线判断，在同一对角线中时，两点组成正方形，行差与列差的绝对值相等，3，使用数组得出答案后需要遍历两边数组构造图案，外层循环为行，内层为列，内层列循环等于外层行标对应值表示皇后所在位置</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>暴力循环即可</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>先排序，按次取出，看已加入队列的最后end是否大于当前start，大于则直接更新，不大于则加入该元素</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix    </t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>57. Insert Interval</t>
+  </si>
+  <si>
+    <t>301. Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>修正匹配括号，考察1.括号匹配验证，2.查找匹配出错处，3.如何修正，找出所有正确可能性：a，优先去除所有多余右括号，再去除多余左括号，剪枝 b，连续两个相同括号去除第一个，排除重复答案 c，设定查找初始位置，递归排查，跳出条件为l，r =0 且符合匹配原则</t>
+  </si>
+  <si>
+    <t>273. Integer to English Words</t>
+  </si>
+  <si>
+    <t>数字与英文读法转换，1-20以内一一对应，再往上先除取大头然后归一到20以内进行转换</t>
+  </si>
+  <si>
+    <t>253. Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>排序所有会议室，遍历每个新的会议室，使用堆结构对比最早结束的会议室</t>
+  </si>
+  <si>
+    <t>67. Add Binary</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>暴力破解会超时，考虑上时间因素，只使用一次遍历，当前价格如果是最低价格那便作为可能的最低买入价，不过不是最低价格，与最低价格相减，尝试利润是否最大</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>考察数学理解能力，从后往前查，如果i-1 &lt; I 则锁定该数字，再从最后往前找第一个比i-1大的数，两数交换，再把后面这排底儿朝头换一把，OK</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>426. Convert Binary Search Tree to Sorted Doubly Linked List</t>
+  </si>
+  <si>
+    <t>考察中序遍历</t>
+  </si>
+  <si>
+    <t>438. Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>还是中序遍历，附带还原能力</t>
+  </si>
+  <si>
+    <t>158. Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>求所有可能的数字解，一开始考虑的是回溯，因为每次尝试一个或两个，然后添加回来继续尝试，可以得出答案，但超时了。切换为dp，明显，dp[i] = dp[i-1]+dp[i-2],初始化dp0为1，进行遍历调用</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>遍历求和，不用每次都sum一把，可以记下当前sum，++，节省时间。或者先求每个sum，然后一一相减，时间复杂度一致</t>
+  </si>
+  <si>
+    <t>211. Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>Trie Tree</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>使用滑动窗口，先向右遍历，满足条件后从左侧收紧至最小符合条件情况，遍历整个数组，找出最优答案</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>完整路径中查找最大sum，开始考虑的是以0为哨兵，在0界处判断各种条件，&gt;0则加入节点，&lt;0则中断连续，重新查找，但实际case需要考虑负数sum，则不存在0判断。直接对所有节点value进行相加，然后对比取出最大结果。以根节点为例，它的sum必然包含自己不管正负，但可以判断子节点正负关系来判定是否加入子节点</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>题意比较简单，但限制了使用除法和时间复杂度，先从左往右依次乘一把，得出一个结果，再从右往左乘一把算出正确答案</t>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>349. Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>使用动态规划，切分子问题，从头到尾遍历，选择当前元素，与所有之前元素比较，若大于，则dp[i] = dp[j]+1,选取 0~i-1中最大的值+1作为dp[i]，然后返回dp最大值</t>
   </si>
 </sst>
 </file>
@@ -518,22 +710,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,50 +735,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>43394</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -596,14 +788,14 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>43394</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,14 +805,14 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>43394</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -630,14 +822,14 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>43394</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -647,11 +839,11 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -661,11 +853,11 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -675,14 +867,14 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>43394</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,11 +884,11 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,14 +898,14 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>43394</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -723,11 +915,11 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>43395</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -737,11 +929,11 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>43395</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,11 +943,11 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>43395</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -765,14 +957,14 @@
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>43396</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,11 +974,11 @@
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -796,11 +988,11 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -810,11 +1002,11 @@
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -824,11 +1016,11 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -838,14 +1030,14 @@
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>43397</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -855,11 +1047,11 @@
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>43397</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -869,11 +1061,11 @@
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>43397</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,11 +1075,11 @@
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,75 +1089,653 @@
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>43397</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>43398</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E27" s="4">
+        <v>43398</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="4">
         <v>43398</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="F28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="4">
-        <v>43398</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="4">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4">
         <v>43398</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="4">
-        <v>43398</v>
+      <c r="E31" s="4">
+        <v>43399</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43399</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43400</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43400</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43400</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43400</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43403</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43403</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43403</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43404</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43404</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43404</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43404</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="4">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43405</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="4">
+        <v>43405</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="4">
+        <v>43406</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="4">
+        <v>43406</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="4">
+        <v>43406</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="4">
+        <v>43406</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43408</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="4">
+        <v>43408</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="4">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43408</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{58CA4993-191C-44A7-8260-B2B009388923}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE5152-CFB8-427D-9307-2259CB4B5C2F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD41218-D04F-4692-979A-D0B7ED96AEA6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>*?y</t>
   </si>
@@ -374,6 +374,69 @@
   </si>
   <si>
     <t>使用动态规划，切分子问题，从头到尾遍历，选择当前元素，与所有之前元素比较，若大于，则dp[i] = dp[j]+1,选取 0~i-1中最大的值+1作为dp[i]，然后返回dp最大值</t>
+  </si>
+  <si>
+    <t>341. Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>282. Expression Add Operators</t>
+  </si>
+  <si>
+    <t>穷尽所有可能的大都选择回溯。两个条件，回溯所有操作符，回溯所有数字组合，简单拼接后暴力计算结果然后对比会超时，边回溯边计算，记录上一个操作值，加减不需要，乘的话需要上一步的结果减去prevalue，然后此prevalue相乘</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>时间复杂度有要求，交换次数越少越好</t>
+  </si>
+  <si>
+    <t>65. Valid Number</t>
+  </si>
+  <si>
+    <t>记录上一步状态，进行下一步判断</t>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>两个哨兵循环移动</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>314. Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS+map</t>
+  </si>
+  <si>
+    <t>398. Random Pick Index</t>
+  </si>
+  <si>
+    <t>构造字典，使用random函数随机输出index</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>递归调用子树，关键点在于查找数值一定存在，则可以判断如果右子树返回空，两值一定在左子树上</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>最近最少使用淘汰策略：使用双向链表和hashmap实现。Map存储当前所有key对应的node，则查找为O(1)，插入时，直接插到队头，超出的被淘汰，查找时返回结果且将此node移至队头</t>
+  </si>
+  <si>
+    <t>261. Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>先通过边构造有向图，然后使用深度优先遍历，借助set函数记录已访问节点，如果重复访问则判定为循环</t>
   </si>
 </sst>
 </file>
@@ -710,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,11 +1787,204 @@
       <c r="B68" t="s">
         <v>116</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E68" s="4">
         <v>43408</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43409</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="4">
+        <v>43409</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="4">
+        <v>43409</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="4">
+        <v>43409</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="4">
+        <v>43410</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="4">
+        <v>43410</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="4">
+        <v>43410</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43410</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43410</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD41218-D04F-4692-979A-D0B7ED96AEA6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340AC4D-43F0-4F7D-A4B7-6E93496C2B4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="163">
   <si>
     <t>*?y</t>
   </si>
@@ -437,6 +437,78 @@
   </si>
   <si>
     <t>先通过边构造有向图，然后使用深度优先遍历，借助set函数记录已访问节点，如果重复访问则判定为循环</t>
+  </si>
+  <si>
+    <t>523. Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>两数同余，相减可被该数整除。制作hashmap，记录每个余数，相同则说明可以整除</t>
+  </si>
+  <si>
+    <t>278. First Bad Version</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>思路比较简单，时间复杂度有要求的情况下考虑使用堆，数等优化数据结构。此处使用的是最大单向队列。每次插入淘汰小元素，保持最大元素在队头，则取出时，O(1)</t>
+  </si>
+  <si>
+    <t>304. Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>累加和，数组矩阵这种求和算target的样式注意使用累加和相减降低时间复杂度</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>熟悉使用堆结构</t>
+  </si>
+  <si>
+    <t>336. Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>回文查找，熟悉掌握回文特性，建立回文map，遍历每个单词，再单词内遍历每种情况</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>689. Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>这种累加求和的题目首先先想到使用累加和数组，减少工作量。该题目中，先从左向右遍历最大组合，再从右向左找最大组合，然后中间遍历，各相加左右最大组合，找出最大值</t>
+  </si>
+  <si>
+    <t>785. Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>图遍历方式，二分图使用图染色技术，遇到染色不成功则返回失败</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>深度遍历，返回深度</t>
+  </si>
+  <si>
+    <t>896. Monotonic Array</t>
+  </si>
+  <si>
+    <t>380. Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>借助字典记住list的index，然后进行增删操作</t>
+  </si>
+  <si>
+    <t>224. Basic Calculator</t>
+  </si>
+  <si>
+    <t>维护两个堆栈，操作符与操作数，操作符堆栈包含操作符等级信息，遇到（ 等级+1，）等级-1，操作符堆栈插入的操作符只能比队头操作符等级高，低的话先弹栈，每弹一个操作符弹两个操作数进行预算再把结果入栈，一直遍历到字符串结束，再把栈内元素计算完成</t>
   </si>
 </sst>
 </file>
@@ -773,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,6 +2046,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B79" t="s">
         <v>137</v>
       </c>
@@ -1985,6 +2060,218 @@
       </c>
       <c r="F79" s="3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="4">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="4">
+        <v>43413</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="4">
+        <v>43413</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="4">
+        <v>43413</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="4">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" s="4">
+        <v>43413</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="4">
+        <v>43413</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340AC4D-43F0-4F7D-A4B7-6E93496C2B4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A94CC-3045-4D5B-901E-C3110F5E62C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="259">
   <si>
     <t>*?y</t>
   </si>
@@ -509,6 +509,294 @@
   </si>
   <si>
     <t>维护两个堆栈，操作符与操作数，操作符堆栈包含操作符等级信息，遇到（ 等级+1，）等级-1，操作符堆栈插入的操作符只能比队头操作符等级高，低的话先弹栈，每弹一个操作符弹两个操作数进行预算再把结果入栈，一直遍历到字符串结束，再把栈内元素计算完成</t>
+  </si>
+  <si>
+    <t>214. Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>考察回文理解，直观做法是翻转字符串，反向对比，相等则为回文。优化做法考虑使用kmp，计算每个位置的回文长度</t>
+  </si>
+  <si>
+    <t>418. Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>先把字符串拼接起来</t>
+  </si>
+  <si>
+    <t>161. One Edit Distance</t>
+  </si>
+  <si>
+    <t>72题简化版本，只需要判断一步，不需要计算所有步骤，依次判断，如果不等则尝试insert，delete和replace的方式后是否相等</t>
+  </si>
+  <si>
+    <t>430. Flatten a Multilevel Doubly Linked List</t>
+  </si>
+  <si>
+    <t>链表递归操作</t>
+  </si>
+  <si>
+    <t>270. Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>199. Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>DFS只保留最后遍历的节点，先从左子树开始遍历</t>
+  </si>
+  <si>
+    <t>143. Reorder List</t>
+  </si>
+  <si>
+    <t>340. Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>109. Convert Sorted List to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>利用二叉树inorder性质进行遍历，逐一插入链表元素</t>
+  </si>
+  <si>
+    <t>58. Length of Last Word</t>
+  </si>
+  <si>
+    <t>59. Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>60. Permutation Sequence</t>
+  </si>
+  <si>
+    <t>观察规律，每个都是阶乘的个数，除以n-1的阶乘，就是当前的index</t>
+  </si>
+  <si>
+    <t>61. Rotate List</t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>68. Text Justification</t>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t>71. Simplify Path</t>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>75. Sort Colors</t>
+  </si>
+  <si>
+    <t>收尾各一个指针代表0和2的位置，idx进行向前遍历，替换位置</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>in place</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>80. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>84. Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>暴力解法是两层遍历，宽度逐渐扩大，找最小高度乘以宽度，或者使用分治，找0~n最小高度求面积，然后求0~n/2和n/2~0的面积，去较大值。3. 使用stack，遍历所有高度 遇到较小值后依次向前取较大值求该较大高度面积，因为之前保证后方高度肯定比当前大，所以不需要考虑高度限制问题</t>
+  </si>
+  <si>
+    <t>85. Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>二维版的84题，每层先遍历计算出heights，然后使用84题解法进行解决</t>
+  </si>
+  <si>
+    <t>83. Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>82. Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>需要在头部额外加一个node尽心遍历，让该node的next逐步后移，最后返回该node的next</t>
+  </si>
+  <si>
+    <t>86. Partition List</t>
+  </si>
+  <si>
+    <t>建立两个链表，分别添加元素</t>
+  </si>
+  <si>
+    <t>89. Gray Code</t>
+  </si>
+  <si>
+    <t>f = i^i&gt;&gt;1</t>
+  </si>
+  <si>
+    <t>92. Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>链表转换，这种转换一般要在头部之前再设置一个头部，以供置换</t>
+  </si>
+  <si>
+    <t>93. Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>根据条件回溯，依次向前尝试1,2,3位，ip规则下0只能单独存在，三位的话小于256，符合规则的进行拼接，idx前移，继续尝试，组数为四且到了string尾部满足条件，加入答案数组</t>
+  </si>
+  <si>
+    <t>95. Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>需要结合二叉搜索树性质进行解决。在有序数组中mid左侧作为左子树，右侧左右右子树，遍历数组，所有元素作为跟节点构建bsf。子树也有n种可能性，遍历所有左右子树，进行所有情况的构建</t>
+  </si>
+  <si>
+    <t>87. Scramble String</t>
+  </si>
+  <si>
+    <t>递归遍历以每个字符为中心的树 查找是否有符合条件的</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>只比较最近左右节点大小是错误的，需要传入一个值域，所有子节点都需要满足此值域</t>
+  </si>
+  <si>
+    <t>97. Interleaving String</t>
+  </si>
+  <si>
+    <t>backtrcking可以列举所有情况然后判断相等，会超时。使用dp，一列 一行就是单向对比，后面逐次推进</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>递归判定，需要构造两棵树，进行循环对比</t>
+  </si>
+  <si>
+    <t>99. Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>中序遍历出来便是有序数组，此属性运用经常被考察，此处使用中序遍历查找不和规则的两个node，遍历完成后进行调换</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>考察 前中后序遍历的特性</t>
+  </si>
+  <si>
+    <t>106. Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>有序数组中间部位为root，递归调用</t>
+  </si>
+  <si>
+    <t>110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>每个根节点求左右子树深度 判断是自顶向下，N^2复杂度。自底向上，如果哪两棵子树深度差超过1 直接返回false</t>
+  </si>
+  <si>
+    <t>112. Path Sum</t>
+  </si>
+  <si>
+    <t>113. Path Sum II</t>
+  </si>
+  <si>
+    <t>114. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>115. Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>两个字符串求公共子串，单个字符串求回文，优先考虑dp方式。考虑dp时，先考虑初始化情况，两者都为0或者从0开始，再考虑两方各为1情况下相等时的条件累加，最后推导出n的情况</t>
+  </si>
+  <si>
+    <t>116. Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>117. Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>119. Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>120. Triangle</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>123. Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/linhuanmars/article/details/23236995</t>
+  </si>
+  <si>
+    <t>129. Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>借助haspmap</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>126. Word Ladder II</t>
+  </si>
+  <si>
+    <t>BFS DFS</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
 </sst>
 </file>
@@ -845,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,6 +2562,890 @@
         <v>162</v>
       </c>
     </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="4">
+        <v>43414</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="4">
+        <v>43414</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E95" s="4">
+        <v>43416</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="4">
+        <v>43416</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="4">
+        <v>43416</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="4">
+        <v>43416</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E99" s="4">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="4">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="4">
+        <v>43416</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" s="4">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" s="4">
+        <v>43418</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105" s="4">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="4">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="4">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>186</v>
+      </c>
+      <c r="E108" s="4">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="4">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110" s="4">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" s="4">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>190</v>
+      </c>
+      <c r="E112" s="4">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="4">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114" s="4">
+        <v>43420</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" s="4">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="4">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="4">
+        <v>43421</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E118" s="4">
+        <v>43421</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" s="4">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" s="4">
+        <v>43421</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>205</v>
+      </c>
+      <c r="E121" s="4">
+        <v>43421</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>207</v>
+      </c>
+      <c r="E122" s="4">
+        <v>43422</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="4">
+        <v>43422</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E124" s="4">
+        <v>43422</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="4">
+        <v>43422</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E126" s="4">
+        <v>43422</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>217</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="4">
+        <v>43423</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="4">
+        <v>43423</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="4">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="4">
+        <v>43423</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="4">
+        <v>43423</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="4">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="4">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>229</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="4">
+        <v>43424</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s">
+        <v>231</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="4">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="4">
+        <v>43424</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="4">
+        <v>43424</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>236</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="4">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="4">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="4">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>239</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="4">
+        <v>43425</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="4">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="4">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E144" s="4">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E145" s="4">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="s">
+        <v>246</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E146" s="4">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>247</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E147" s="4">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="4">
+        <v>43426</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E149" s="4">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E150" s="4">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>252</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E151" s="4">
+        <v>43427</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E152" s="4">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E153" s="4">
+        <v>43427</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{58CA4993-191C-44A7-8260-B2B009388923}"/>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A94CC-3045-4D5B-901E-C3110F5E62C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA418FC-2C73-4FC1-B168-E20C1F05522C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="314">
   <si>
     <t>*?y</t>
   </si>
@@ -797,6 +797,171 @@
   </si>
   <si>
     <t>DFS</t>
+  </si>
+  <si>
+    <t>132. Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>跑两把dp，第一把查找i~j的子串是否为回文，第二把查找最小分割次数，0~i个字符，j&lt;i，若j~i为回文，则dpi = dpj + 1， dp表示0~i位最小分割次数</t>
+  </si>
+  <si>
+    <t>133. Clone Graph</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>134. Gas Station</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq508618087/article/details/50990076</t>
+  </si>
+  <si>
+    <t>135. Candy</t>
+  </si>
+  <si>
+    <t>前后各遍历一把</t>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>137. Single Number II</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>使用一次与或进行记录只出现一次的情况</t>
+  </si>
+  <si>
+    <t>使用两个与或记录三次出现的情况</t>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Loop DP</t>
+  </si>
+  <si>
+    <t>139. Word Break</t>
+  </si>
+  <si>
+    <t>Loop DP || DFS</t>
+  </si>
+  <si>
+    <t>DP解法类似132， 分解子问题，然后在子问题中再遍历查找是否有解。DFS中，从index=0开始，遍历每个字典单词，符合条件的，继续深度搜索，若搜索到末尾，则说明有解</t>
+  </si>
+  <si>
+    <t>140. Word Break II</t>
+  </si>
+  <si>
+    <t>DFS 剪枝</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/58d8bd1c44d90400687b54bc</t>
+  </si>
+  <si>
+    <t>https://www.jiuzhang.com/solution/word-break-ii/</t>
+  </si>
+  <si>
+    <t>纯DFS或者dp会超时，需要添加剪枝策略，解题使用的是cache，也可以使用dp或者memory记录当前位置是否有继续遍历下去必要的方式剪枝</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>142. Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>144. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>147. Insertion Sort List</t>
+  </si>
+  <si>
+    <t>构造一个新的列表进行插入排序，原列表取值然后插入新列表中</t>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>考察快慢指针</t>
+  </si>
+  <si>
+    <t>150. Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>使用stack对逆波兰进行计算</t>
+  </si>
+  <si>
+    <t>151. Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>类似求最大子集和，但乘有负负得正，所以需要记录最低和最高，最低有可能变为最高</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>154. Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>149. Max Points on a Line</t>
+  </si>
+  <si>
+    <t>求斜率</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>156. Binary Tree Upside Down</t>
+  </si>
+  <si>
+    <t>157. Read N Characters Given Read4</t>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>159. Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>163. Missing Ranges</t>
+  </si>
+  <si>
+    <t>164. Maximum Gap</t>
+  </si>
+  <si>
+    <t>165. Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>166. Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>168. Excel Sheet Column Title</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,6 +3611,501 @@
         <v>43427</v>
       </c>
     </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>259</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E154" s="4">
+        <v>43428</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="4">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>262</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E156" s="4">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>264</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E157" s="4">
+        <v>43428</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" s="4">
+        <v>43428</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B159" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" s="4">
+        <v>43429</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B160" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" s="4">
+        <v>43429</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E161" s="4">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E162" s="4">
+        <v>43429</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E163" s="4">
+        <v>43429</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G163" t="s">
+        <v>281</v>
+      </c>
+      <c r="M163" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
+        <v>284</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E164" s="4">
+        <v>43430</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="4">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>286</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="4">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
+        <v>287</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E167" s="4">
+        <v>43430</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>289</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="4">
+        <v>43430</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>292</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" s="4">
+        <v>43431</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>294</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E170" s="4">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E171" s="4">
+        <v>43431</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E172" s="4">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>298</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E173" s="4">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E174" s="4">
+        <v>43431</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" t="s">
+        <v>302</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E176" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>304</v>
+      </c>
+      <c r="E177" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s">
+        <v>305</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>307</v>
+      </c>
+      <c r="E180" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>308</v>
+      </c>
+      <c r="E181" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>309</v>
+      </c>
+      <c r="E182" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E183" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>311</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>312</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>313</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E186" s="4">
+        <v>43433</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{58CA4993-191C-44A7-8260-B2B009388923}"/>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA418FC-2C73-4FC1-B168-E20C1F05522C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B226C-A0B4-4B96-AB2E-8B01440FF87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="404">
   <si>
     <t>*?y</t>
   </si>
@@ -508,9 +508,6 @@
     <t>224. Basic Calculator</t>
   </si>
   <si>
-    <t>维护两个堆栈，操作符与操作数，操作符堆栈包含操作符等级信息，遇到（ 等级+1，）等级-1，操作符堆栈插入的操作符只能比队头操作符等级高，低的话先弹栈，每弹一个操作符弹两个操作数进行预算再把结果入栈，一直遍历到字符串结束，再把栈内元素计算完成</t>
-  </si>
-  <si>
     <t>214. Shortest Palindrome</t>
   </si>
   <si>
@@ -962,6 +959,279 @@
   </si>
   <si>
     <t>168. Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>174. Dungeon Game</t>
+  </si>
+  <si>
+    <t>DFS,DP</t>
+  </si>
+  <si>
+    <t>先使用dfs进行尝试，超时，需要考虑剪枝，判断条件的剪枝效果不明显，使用map记录已经得到的结果，先遍历到最后，然后一步步退回取map的结果.DP则自底向上进行计算</t>
+  </si>
+  <si>
+    <t>169. Majority Element</t>
+  </si>
+  <si>
+    <t>170. Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t>171. Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>172. Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>利用数字性质，末尾含0的乘子里有5，则计算5的个数得出</t>
+  </si>
+  <si>
+    <t>175. Combine Two Tables</t>
+  </si>
+  <si>
+    <t>176. Second Highest Salary</t>
+  </si>
+  <si>
+    <t>178. Rank Scores</t>
+  </si>
+  <si>
+    <t>177. Nth Highest Salary</t>
+  </si>
+  <si>
+    <t>179. Largest Number</t>
+  </si>
+  <si>
+    <t>学习使用list内嵌排序，比较大小方式巧妙，直接对两数拼接，看哪个结果大，返回哪个大</t>
+  </si>
+  <si>
+    <t>181. Employees Earning More Than Their Managers</t>
+  </si>
+  <si>
+    <t>182. Duplicate Emails</t>
+  </si>
+  <si>
+    <t>184. Department Highest Salary</t>
+  </si>
+  <si>
+    <t>183. Customers Who Never Order</t>
+  </si>
+  <si>
+    <t>180. Consecutive Numbers</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>186. Reverse Words in a String II</t>
+  </si>
+  <si>
+    <t>187. Repeated DNA Sequences</t>
+  </si>
+  <si>
+    <t>188. Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>185. Department Top Three Salaries</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>190. Reverse Bits</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>192. Word Frequency</t>
+  </si>
+  <si>
+    <t>193. Valid Phone Numbers</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>196. Delete Duplicate Emails</t>
+  </si>
+  <si>
+    <t>197. Rising Temperature</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>201. Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>考察位操作</t>
+  </si>
+  <si>
+    <t>203. Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>212. Word Search II</t>
+  </si>
+  <si>
+    <t>使用trie tree进行图搜索剪枝</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>217. Contains Duplicate</t>
+  </si>
+  <si>
+    <t>219. Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>220. Contains Duplicate III</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>使用桶或者二叉树加快查找，使用淘汰策略保持k个元素的比较</t>
+  </si>
+  <si>
+    <t>221. Maximal Square</t>
+  </si>
+  <si>
+    <t>218. The Skyline Problem</t>
+  </si>
+  <si>
+    <t>heapq</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8Kd-Tn_Rz7s</t>
+  </si>
+  <si>
+    <t>基本思想是使用扫描线方式，先把大楼信息拆分，然后按index进行排序，需要区分入高度和出高度，入高度时若高于当前最大高度则添加此点且入heap，出高度时，先从heap中弹出次高度，若弹出高度大于heap中最大高度，则将此高度入天际线，index相同时，先处理enter再处理leaving. Same entering, process the highest first, same leaving, process the lowest first</t>
+  </si>
+  <si>
+    <t>222. Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>利用满树的性质，直接对比最左最右子树，深度相等则直接平方阶乘，若不等，遍历左右子树进行递归判定，时间复杂度降为lgn</t>
+  </si>
+  <si>
+    <t>223. Rectangle Area</t>
+  </si>
+  <si>
+    <t>使用数学方法，两方块左边取最大边，右边取最小边，相减，大于0则说明有重叠，算重叠面积然后相减</t>
+  </si>
+  <si>
+    <t>维护两个堆栈，操作符与操作数，操作符堆栈包含操作符等级信息，遇到'（ '等级+1，'）'等级-1，操作符堆栈插入的操作符只能比队头操作符等级高，低的话先弹栈，每弹一个操作符弹两个操作数进行预算再把结果入栈，一直遍历到字符串结束，再把栈内元素计算完成</t>
+  </si>
+  <si>
+    <t>227. Basic Calculator II</t>
+  </si>
+  <si>
+    <t>类似224，使用两个堆栈进行优先级记录，此处没有括号，所以少了遇到括号优先级+1的case</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>225. Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>228. Summary Ranges</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>229. Majority Element II</t>
+  </si>
+  <si>
+    <t>注意限制条件，n/3个数，最多有俩，然后对这俩进行统计就好了</t>
+  </si>
+  <si>
+    <t>234. Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>237. Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>240. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>233. Number of Digit One</t>
+  </si>
+  <si>
+    <t>没有完全掌握，大致是分析小数规律，然后做大数分解</t>
+  </si>
+  <si>
+    <t>241. Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>分治法，求所有可能性的，可以考虑使用分治法。该题中，考虑以每个操作符分割的情况，遍历字符串，尝试每种分割，左右两侧返回的可能性叉乘后，得到当前字符串的所有可能的结果</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>243. Shortest Word Distance</t>
+  </si>
+  <si>
+    <t>244. Shortest Word Distance II</t>
+  </si>
+  <si>
+    <t>245. Shortest Word Distance III</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2994,7 @@
         <v>43413</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>162</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,7 +3002,7 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>83</v>
@@ -2741,7 +3011,7 @@
         <v>43414</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>83</v>
@@ -2758,7 +3028,7 @@
         <v>43414</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,7 +3036,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>83</v>
@@ -2775,7 +3045,7 @@
         <v>43416</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2783,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>83</v>
@@ -2792,7 +3062,7 @@
         <v>43416</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>83</v>
@@ -2809,7 +3079,7 @@
         <v>43416</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>83</v>
@@ -2826,7 +3096,7 @@
         <v>43416</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2834,7 +3104,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>83</v>
@@ -2848,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>12</v>
@@ -2865,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>83</v>
@@ -2874,7 +3144,7 @@
         <v>43416</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,7 +3152,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E102" s="4">
         <v>43418</v>
@@ -2893,7 +3163,7 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E103" s="4">
         <v>43418</v>
@@ -2904,13 +3174,13 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E104" s="4">
         <v>43418</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2918,7 +3188,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E105" s="4">
         <v>43418</v>
@@ -2929,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E106" s="4">
         <v>43418</v>
@@ -2940,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E107" s="4">
         <v>43419</v>
@@ -2951,7 +3221,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E108" s="4">
         <v>43419</v>
@@ -2962,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E109" s="4">
         <v>43419</v>
@@ -2973,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E110" s="4">
         <v>43419</v>
@@ -2984,7 +3254,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E111" s="4">
         <v>43419</v>
@@ -2995,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E112" s="4">
         <v>43420</v>
@@ -3006,7 +3276,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E113" s="4">
         <v>43420</v>
@@ -3017,16 +3287,16 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" s="4">
         <v>43420</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,10 +3304,10 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E115" s="4">
         <v>43420</v>
@@ -3048,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E116" s="4">
         <v>43420</v>
@@ -3059,13 +3329,13 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E117" s="4">
         <v>43421</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,13 +3343,13 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E118" s="4">
         <v>43421</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,7 +3357,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E119" s="4">
         <v>43421</v>
@@ -3098,13 +3368,13 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E120" s="4">
         <v>43421</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,13 +3382,13 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E121" s="4">
         <v>43421</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3126,13 +3396,13 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E122" s="4">
         <v>43422</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3140,7 +3410,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>67</v>
@@ -3149,7 +3419,7 @@
         <v>43422</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3157,16 +3427,16 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E124" s="4">
         <v>43422</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -3183,7 +3453,7 @@
         <v>43422</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,16 +3461,16 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E126" s="4">
         <v>43422</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>23</v>
@@ -3217,7 +3487,7 @@
         <v>43423</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>15</v>
@@ -3234,7 +3504,7 @@
         <v>43423</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3242,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>23</v>
@@ -3256,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>23</v>
@@ -3265,7 +3535,7 @@
         <v>43423</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -3282,7 +3552,7 @@
         <v>43423</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>23</v>
@@ -3304,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -3318,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -3327,7 +3597,7 @@
         <v>43424</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>23</v>
@@ -3349,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>23</v>
@@ -3358,7 +3628,7 @@
         <v>43424</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,7 +3636,7 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>23</v>
@@ -3375,7 +3645,7 @@
         <v>43424</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>23</v>
@@ -3397,7 +3667,7 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
@@ -3411,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>23</v>
@@ -3425,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>15</v>
@@ -3434,7 +3704,7 @@
         <v>43425</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3442,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
@@ -3456,7 +3726,7 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>23</v>
@@ -3470,10 +3740,10 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E144" s="4">
         <v>43426</v>
@@ -3484,10 +3754,10 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E145" s="4">
         <v>43426</v>
@@ -3498,10 +3768,10 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E146" s="4">
         <v>43426</v>
@@ -3512,10 +3782,10 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E147" s="4">
         <v>43426</v>
@@ -3526,7 +3796,7 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>15</v>
@@ -3535,7 +3805,7 @@
         <v>43426</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3543,10 +3813,10 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E149" s="4">
         <v>43427</v>
@@ -3557,10 +3827,10 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E150" s="4">
         <v>43427</v>
@@ -3571,16 +3841,16 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E151" s="4">
         <v>43427</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,10 +3858,10 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E152" s="4">
         <v>43427</v>
@@ -3602,10 +3872,10 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E153" s="4">
         <v>43427</v>
@@ -3616,16 +3886,16 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E154" s="4">
         <v>43428</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3633,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>15</v>
@@ -3647,10 +3917,10 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E156" s="4">
         <v>43428</v>
@@ -3661,16 +3931,16 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E157" s="4">
         <v>43428</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,50 +3948,50 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E158" s="4">
         <v>43428</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E159" s="4">
         <v>43429</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B160" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E160" s="4">
         <v>43429</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -3729,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>67</v>
@@ -3743,16 +4013,16 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
+        <v>275</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E162" s="4">
         <v>43429</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -3760,22 +4030,22 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
+        <v>278</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E163" s="4">
         <v>43429</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G163" t="s">
+        <v>280</v>
+      </c>
+      <c r="M163" t="s">
         <v>281</v>
-      </c>
-      <c r="M163" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -3783,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>67</v>
@@ -3792,7 +4062,7 @@
         <v>43430</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -3800,7 +4070,7 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>67</v>
@@ -3814,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>23</v>
@@ -3828,7 +4098,7 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>67</v>
@@ -3837,7 +4107,7 @@
         <v>43430</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -3845,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>67</v>
@@ -3854,7 +4124,7 @@
         <v>43430</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -3862,16 +4132,16 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E169" s="4">
         <v>43431</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -3879,10 +4149,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E170" s="4">
         <v>43431</v>
@@ -3893,16 +4163,16 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E171" s="4">
         <v>43431</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -3910,10 +4180,10 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E172" s="4">
         <v>43431</v>
@@ -3924,10 +4194,10 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E173" s="4">
         <v>43431</v>
@@ -3938,16 +4208,16 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E174" s="4">
         <v>43431</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -3955,7 +4225,7 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>23</v>
@@ -3969,32 +4239,32 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E176" s="4">
         <v>43432</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E177" s="4">
         <v>43432</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>67</v>
@@ -4003,12 +4273,12 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>12</v>
@@ -4017,93 +4287,944 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E180" s="4">
         <v>43432</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E181" s="4">
         <v>43432</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E182" s="4">
         <v>43433</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E183" s="4">
         <v>43433</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E184" s="4">
         <v>43433</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E185" s="4">
         <v>43433</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B186" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E186" s="4">
         <v>43433</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>313</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E187" s="4">
+        <v>43434</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>316</v>
+      </c>
+      <c r="E188" s="4">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B189" t="s">
+        <v>317</v>
+      </c>
+      <c r="E189" s="4">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B190" t="s">
+        <v>318</v>
+      </c>
+      <c r="E190" s="4">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>320</v>
+      </c>
+      <c r="E191" s="4">
+        <v>43434</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>322</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E192" s="4">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>323</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E193" s="4">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>324</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E194" s="4">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" t="s">
+        <v>325</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E195" s="4">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s">
+        <v>326</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E196" s="4">
+        <v>43435</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>328</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E197" s="4">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>329</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E198" s="4">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>330</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E199" s="4">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>331</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>332</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E201" s="4">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>334</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E202" s="4">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>335</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E203" s="4">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>336</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E204" s="4">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>337</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E205" s="4">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>338</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E206" s="4">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>342</v>
+      </c>
+      <c r="E207" s="4">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>343</v>
+      </c>
+      <c r="E208" s="4">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>344</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E209" s="4">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>345</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E210" s="4">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>347</v>
+      </c>
+      <c r="E211" s="4">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>348</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B213" t="s">
+        <v>349</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" s="4">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>350</v>
+      </c>
+      <c r="E214" s="4">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>352</v>
+      </c>
+      <c r="E215" s="4">
+        <v>43439</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B216" t="s">
+        <v>354</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E216" s="4">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" t="s">
+        <v>356</v>
+      </c>
+      <c r="E217" s="4">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>357</v>
+      </c>
+      <c r="E218" s="4">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B219" t="s">
+        <v>358</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E219" s="4">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>359</v>
+      </c>
+      <c r="E220" s="4">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>360</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="4">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" t="s">
+        <v>361</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E222" s="4">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>362</v>
+      </c>
+      <c r="E223" s="4">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>363</v>
+      </c>
+      <c r="E224" s="4">
+        <v>43441</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>365</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="4">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>366</v>
+      </c>
+      <c r="E226" s="4">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>367</v>
+      </c>
+      <c r="E227" s="4">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>368</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E228" s="4">
+        <v>43442</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" t="s">
+        <v>371</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="4">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>372</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E230" s="4">
+        <v>43442</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="L230" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>376</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E231" s="4">
+        <v>43443</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>378</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E232" s="4">
+        <v>43443</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" t="s">
+        <v>381</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E233" s="4">
+        <v>43443</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>383</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" s="4">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>384</v>
+      </c>
+      <c r="E235" s="4">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>385</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E236" s="4">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>386</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" s="4">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>387</v>
+      </c>
+      <c r="E238" s="4">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>388</v>
+      </c>
+      <c r="E239" s="4">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240" t="s">
+        <v>389</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E240" s="4">
+        <v>43444</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>391</v>
+      </c>
+      <c r="E241" s="4">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B242" t="s">
+        <v>392</v>
+      </c>
+      <c r="E242" s="4">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B243" t="s">
+        <v>393</v>
+      </c>
+      <c r="E243" s="4">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" t="s">
+        <v>394</v>
+      </c>
+      <c r="E244" s="4">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>395</v>
+      </c>
+      <c r="E245" s="4">
+        <v>43445</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>397</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E246" s="4">
+        <v>43446</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>400</v>
+      </c>
+      <c r="E247" s="4">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>401</v>
+      </c>
+      <c r="E248" s="4">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249" t="s">
+        <v>402</v>
+      </c>
+      <c r="E249" s="4">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s">
+        <v>403</v>
+      </c>
+      <c r="E250" s="4">
+        <v>43446</v>
       </c>
     </row>
   </sheetData>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B226C-A0B4-4B96-AB2E-8B01440FF87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B921E-C487-40D9-87A3-029DEFA6D78C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="494">
   <si>
     <t>*?y</t>
   </si>
@@ -1232,6 +1232,276 @@
   </si>
   <si>
     <t>245. Shortest Word Distance III</t>
+  </si>
+  <si>
+    <t>249. Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>250. Count Univalue Subtrees</t>
+  </si>
+  <si>
+    <t>246. Strobogrammatic Number</t>
+  </si>
+  <si>
+    <t>247. Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>251. Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms</t>
+  </si>
+  <si>
+    <t>254. Factor Combinations</t>
+  </si>
+  <si>
+    <t>255. Verify Preorder Sequence in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>256. Paint House</t>
+  </si>
+  <si>
+    <t>dfs, 会超时，需要剪枝，循环在平方的位置处截止，直接对i，n/i添加两个因子</t>
+  </si>
+  <si>
+    <t>拆分遍历核对，nlogn，超时，使用stack，遇到小的插入，大于最小的返回错误，大于前一个，则弹栈，将当前值入栈，表示左子树遍历完毕，进入右子树</t>
+  </si>
+  <si>
+    <t>260. Single Number III</t>
+  </si>
+  <si>
+    <t>259. 3Sum Smaller</t>
+  </si>
+  <si>
+    <t>258. Add Digits</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>262. Trips and Users</t>
+  </si>
+  <si>
+    <t>265. Paint House II</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>263. Ugly Number</t>
+  </si>
+  <si>
+    <t>264. Ugly Number II</t>
+  </si>
+  <si>
+    <t>266. Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>267. Palindrome Permutation II</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>761. Special Binary String</t>
+  </si>
+  <si>
+    <t>920. Number of Music Playlists</t>
+  </si>
+  <si>
+    <t>713. Subarray Product Less Than K</t>
+  </si>
+  <si>
+    <t>453. Minimum Moves to Equal Array Elements</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>左右括号匹配然后求最大序，使用递归求解，遇到最左最右为1,0的表示此串符合条件，递归求解该串内部序列，最后返回时排序后倒叙返回，为最大序列</t>
+  </si>
+  <si>
+    <t>动态规划，dpln，新歌乘以N-j，老歌是j-k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-music-playlists/discuss/180338/DP-solution-that-is-Easy-to-understand</t>
+  </si>
+  <si>
+    <t>初期想到是滑动窗口，但算个数时遇到问题，其实还是最右减最左下标即为个数，因为每前一个窗口都有算自己的组合排列可能</t>
+  </si>
+  <si>
+    <t>可以使用dp求解，算和。也可以以每个点为中心扩展，判断求解，都是n**2</t>
+  </si>
+  <si>
+    <t>总和  -  最小值*总数</t>
+  </si>
+  <si>
+    <t>274. H-Index</t>
+  </si>
+  <si>
+    <t>275. H-Index II</t>
+  </si>
+  <si>
+    <t>269. Alien Dictionary</t>
+  </si>
+  <si>
+    <t>拓扑排序，先通过单词列表建图，然后dfs出结果</t>
+  </si>
+  <si>
+    <t>使用heap</t>
+  </si>
+  <si>
+    <t>二分查找优化</t>
+  </si>
+  <si>
+    <t>271. Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>276. Paint Fence</t>
+  </si>
+  <si>
+    <t>277. Find the Celebrity</t>
+  </si>
+  <si>
+    <t>279. Perfect Squares</t>
+  </si>
+  <si>
+    <t>280. Wiggle Sort</t>
+  </si>
+  <si>
+    <t>281. Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>DP OR BFS</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>使用两个数组做dp，区分相同染色和不同染色</t>
+  </si>
+  <si>
+    <t>先遍历一遍找谁都不认识的，然后再遍历一遍确认</t>
+  </si>
+  <si>
+    <t>开始dfs，超时，这种寻求最短路径的使用bfs，找到返回即可，不用每条路径走到头，dp也可以解决，减去一个当前的平方数然后加上减去数之后的dp值</t>
+  </si>
+  <si>
+    <t>交叉换位，自然满足条件</t>
+  </si>
+  <si>
+    <t>285. Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>286. Walls and Gates</t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>288. Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>284. Peeking Iterator</t>
+  </si>
+  <si>
+    <t>利用inorder的顺序性质，若大于查找目标 则进入左子树进行查找</t>
+  </si>
+  <si>
+    <t>bfs在所有可能中找最短路径</t>
+  </si>
+  <si>
+    <t>数组按位排序</t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>290. Word Pattern</t>
+  </si>
+  <si>
+    <t>291. Word Pattern II</t>
+  </si>
+  <si>
+    <t>292. Nim Game</t>
+  </si>
+  <si>
+    <t>293. Flip Game</t>
+  </si>
+  <si>
+    <t>294. Flip Game II</t>
+  </si>
+  <si>
+    <t>inplace的做法是使用两位进行记录，第一位是当前状态，第二位是next状态，然后遍历右移动</t>
+  </si>
+  <si>
+    <t>字典记录对应关系，遍历确认</t>
+  </si>
+  <si>
+    <t>backtracking，使用字典记录对应关系，依次尝试</t>
+  </si>
+  <si>
+    <t>找规律，直接算结果</t>
+  </si>
+  <si>
+    <t>不是尝试所有可能找是否能赢，而是当前变换后把抉择权交给下家，如果下家没有任何方式能赢则我们赢，依次遍历取反</t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>296. Best Meeting Point</t>
+  </si>
+  <si>
+    <t>298. Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>299. Bulls and Cows</t>
+  </si>
+  <si>
+    <t>直接排序返回会超时，使用最大堆记录前半段，最小堆记录后半段，一次插入。计算时两个堆返回顶端元素</t>
+  </si>
+  <si>
+    <t>直接搜索会超时，横竖分别计算两端距离相加求和</t>
+  </si>
+  <si>
+    <t>递归求</t>
+  </si>
+  <si>
+    <t>借助字典计算</t>
+  </si>
+  <si>
+    <t>302. Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>303. Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>305. Number of Islands II</t>
+  </si>
+  <si>
+    <t>306. Additive Number</t>
+  </si>
+  <si>
+    <t>307. Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>bfs，更新4条边最远，二分查找可以nlogn</t>
+  </si>
+  <si>
+    <t>每加入一个点，4个方向寻找连接的岛，找到后更新此点的根位置，union find</t>
+  </si>
+  <si>
+    <t>dfs，其实就是确立头两个数的位置，然后依次叠加，两层循环尝试所有可能</t>
+  </si>
+  <si>
+    <t>segment tree</t>
+  </si>
+  <si>
+    <t>Sement Tree</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:N305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,6 +5497,816 @@
         <v>43446</v>
       </c>
     </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>404</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E251" s="4">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>405</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E252" s="4">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>406</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E253" s="4">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>407</v>
+      </c>
+      <c r="E254" s="4">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>408</v>
+      </c>
+      <c r="E255" s="4">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>409</v>
+      </c>
+      <c r="E256" s="4">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s">
+        <v>410</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E257" s="4">
+        <v>43448</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" t="s">
+        <v>411</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E258" s="4">
+        <v>43448</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" t="s">
+        <v>412</v>
+      </c>
+      <c r="E259" s="4">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>415</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E260" s="4">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>416</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E261" s="4">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>417</v>
+      </c>
+      <c r="E262" s="4">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>418</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E263" s="4">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>420</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E264" s="4">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265" t="s">
+        <v>421</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E265" s="4">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>423</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E266" s="4">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>424</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E267" s="4">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>425</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E268" s="4">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" t="s">
+        <v>426</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E269" s="4">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>427</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E270" s="4">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>428</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E271" s="4">
+        <v>43451</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>429</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="4">
+        <v>43451</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G272" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>430</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="4">
+        <v>43451</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>431</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E274" s="4">
+        <v>43451</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" t="s">
+        <v>432</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="4">
+        <v>43451</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>439</v>
+      </c>
+      <c r="E276" s="4">
+        <v>43452</v>
+      </c>
+      <c r="N276" s="3"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B277" t="s">
+        <v>440</v>
+      </c>
+      <c r="E277" s="4">
+        <v>43452</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" t="s">
+        <v>441</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E278" s="4">
+        <v>43452</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" t="s">
+        <v>170</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="4">
+        <v>43452</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>445</v>
+      </c>
+      <c r="E280" s="4">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>446</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="4">
+        <v>43454</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B282" t="s">
+        <v>447</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E282" s="4">
+        <v>43454</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B283" t="s">
+        <v>448</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E283" s="4">
+        <v>43454</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" t="s">
+        <v>449</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E284" s="4">
+        <v>43454</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>450</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E285" s="4">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>457</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E286" s="4">
+        <v>43455</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>458</v>
+      </c>
+      <c r="E287" s="4">
+        <v>43455</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>459</v>
+      </c>
+      <c r="E288" s="4">
+        <v>43455</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>460</v>
+      </c>
+      <c r="E289" s="4">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>461</v>
+      </c>
+      <c r="E290" s="4">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s">
+        <v>465</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E291" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
+        <v>466</v>
+      </c>
+      <c r="E292" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" t="s">
+        <v>467</v>
+      </c>
+      <c r="E293" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>468</v>
+      </c>
+      <c r="E294" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" t="s">
+        <v>469</v>
+      </c>
+      <c r="E295" s="4">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>470</v>
+      </c>
+      <c r="E296" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>476</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E297" s="4">
+        <v>43457</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>477</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E298" s="4">
+        <v>43457</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" t="s">
+        <v>478</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" s="4">
+        <v>43457</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>479</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E300" s="4">
+        <v>43457</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301" t="s">
+        <v>484</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E301" s="4">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>485</v>
+      </c>
+      <c r="E302" s="4">
+        <v>43458</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>486</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E303" s="4">
+        <v>43458</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" t="s">
+        <v>487</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E304" s="4">
+        <v>43458</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>488</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E305" s="4">
+        <v>43458</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{58CA4993-191C-44A7-8260-B2B009388923}"/>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B921E-C487-40D9-87A3-029DEFA6D78C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405FFA5-1F24-4470-BA4F-DCE7263E21C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="537">
   <si>
     <t>*?y</t>
   </si>
@@ -1502,6 +1502,135 @@
   </si>
   <si>
     <t>Sement Tree</t>
+  </si>
+  <si>
+    <t>311. Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>309. Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>310. Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>先把矩阵压缩，使用sprase表示，再运算</t>
+  </si>
+  <si>
+    <t>二维矩阵dp，每行代表买，卖，休息</t>
+  </si>
+  <si>
+    <t>最短根是图的终点，dfs比较会超时，借助入度的概念，从叶子开始往上遍历入度大于1的节点，当入度为1了，入栈，继续下层遍历，最后剩下的入度为1的点即为中点</t>
+  </si>
+  <si>
+    <t>308. Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>312. Burst Balloons</t>
+  </si>
+  <si>
+    <t>考察segment tree</t>
+  </si>
+  <si>
+    <t>dfs尝试各种组合方式，使用mem加快速度</t>
+  </si>
+  <si>
+    <t>313. Super Ugly Number</t>
+  </si>
+  <si>
+    <t>315. Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>318. Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>ugly number的扩展，使用一个数组进行遍历递增，同时考虑重复情况，重复的话，把重复的idx都加一</t>
+  </si>
+  <si>
+    <t>bin tree</t>
+  </si>
+  <si>
+    <t>先倒序排序，记录rank，按rank插入，每次插入计算该数后面的数据，因为一遍插入一遍计算，所以使用bin tree</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>将字符串二进制转换，与对比</t>
+  </si>
+  <si>
+    <t>319. Bulb Switcher</t>
+  </si>
+  <si>
+    <t>320. Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>323. Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>按step遍历，超时，直接sqrt 可证</t>
+  </si>
+  <si>
+    <t>dfs，开头思考方式有问题，每次只考虑当前字母变化与否，变是一条路，不变是另外一条路，进行递归</t>
+  </si>
+  <si>
+    <t>每次按个数尝试会超时，剪枝后时间减小依旧超时，使用自底向上的dp，平方复杂度</t>
+  </si>
+  <si>
+    <t>构图，然后做t次dfs计算得出</t>
+  </si>
+  <si>
+    <t>316. Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>317. Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>321. Create Maximum Number</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>使用堆栈遍历，寻找最大串</t>
+  </si>
+  <si>
+    <t>使用堆栈找最大串，遍历所有可能性，进行组合</t>
+  </si>
+  <si>
+    <t>bfs，计算所有路径</t>
+  </si>
+  <si>
+    <t>324. Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>325. Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>326. Power of Three</t>
+  </si>
+  <si>
+    <t>327. Count of Range Sum</t>
+  </si>
+  <si>
+    <t>328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>先计算pre sum，然后遍历减k，在table中则算一把距离</t>
+  </si>
+  <si>
+    <t>取模为0则继续，直到1</t>
+  </si>
+  <si>
+    <t>计算presum，merge切分排序，从中点往右找，确保下层的排序不会影响到上层的计算（乱序）</t>
   </si>
 </sst>
 </file>
@@ -1838,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N305"/>
+  <dimension ref="A1:N325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="F323" sqref="F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6307,6 +6436,325 @@
         <v>492</v>
       </c>
     </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" t="s">
+        <v>494</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E306" s="4">
+        <v>43460</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>495</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E307" s="4">
+        <v>43460</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308" t="s">
+        <v>496</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E308" s="4">
+        <v>43460</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>502</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E309" s="4">
+        <v>43460</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>503</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E310" s="4">
+        <v>43460</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>506</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E311" s="4">
+        <v>43461</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>507</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E312" s="4">
+        <v>43461</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" t="s">
+        <v>508</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E313" s="4">
+        <v>43461</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" t="s">
+        <v>514</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E314" s="4">
+        <v>43462</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>515</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E315" s="4">
+        <v>43462</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" t="s">
+        <v>516</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E316" s="4">
+        <v>43462</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>517</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E317" s="4">
+        <v>43462</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" t="s">
+        <v>522</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E318" s="4">
+        <v>43463</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" t="s">
+        <v>523</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E319" s="4">
+        <v>43463</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" t="s">
+        <v>524</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E320" s="4">
+        <v>43463</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>529</v>
+      </c>
+      <c r="E321" s="4">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B322" t="s">
+        <v>530</v>
+      </c>
+      <c r="E322" s="4">
+        <v>43464</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" t="s">
+        <v>531</v>
+      </c>
+      <c r="E323" s="4">
+        <v>43464</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>532</v>
+      </c>
+      <c r="E324" s="4">
+        <v>43464</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>533</v>
+      </c>
+      <c r="E325" s="4">
+        <v>43464</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{58CA4993-191C-44A7-8260-B2B009388923}"/>

--- a/1record.xlsx
+++ b/1record.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405FFA5-1F24-4470-BA4F-DCE7263E21C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB2841-B6D3-4215-9940-32CD8EF91D0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27135" yWindow="885" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="687">
   <si>
     <t>*?y</t>
   </si>
@@ -1631,13 +1632,980 @@
   </si>
   <si>
     <t>计算presum，merge切分排序，从中点往右找，确保下层的排序不会影响到上层的计算（乱序）</t>
+  </si>
+  <si>
+    <t>333. Largest BST Subtree</t>
+  </si>
+  <si>
+    <t>501. Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>计算子节点方式，2*pos和2*pos+1</t>
+  </si>
+  <si>
+    <t>375. Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>DP Binary</t>
+  </si>
+  <si>
+    <t>410. Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>467. Unique Substrings in Wraparound String</t>
+  </si>
+  <si>
+    <t>464. Can I Win</t>
+  </si>
+  <si>
+    <t>413. Arithmetic Slices</t>
+  </si>
+  <si>
+    <t>组合累加1</t>
+  </si>
+  <si>
+    <t>dfs mem</t>
+  </si>
+  <si>
+    <t>dfs尝试所有可能全部失败才算失败，bitmap进行记录</t>
+  </si>
+  <si>
+    <t>dp[i][j]表示0-i个数字分成j组的最小和</t>
+  </si>
+  <si>
+    <t>486. Predict the Winner</t>
+  </si>
+  <si>
+    <t>474. Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>翻转求值，每次最大，mem记录始末点</t>
+  </si>
+  <si>
+    <t>1d dp遍历两遍</t>
+  </si>
+  <si>
+    <r>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>zeroes</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.7"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.7"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.7"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="1"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>ones</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.7"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.7"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.7"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="1"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>nums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+1][</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>nums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>−1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF5A5A5A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>516. Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>二维dp遍历，相等+2，不等取两侧最大</t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>576. Out of Boundary Paths</t>
+  </si>
+  <si>
+    <t>638. Shopping Offers</t>
+  </si>
+  <si>
+    <t>646. Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>562. Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>370. Range Addition</t>
+  </si>
+  <si>
+    <t>442. Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>531. Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>548. Split Array with Equal Sum</t>
+  </si>
+  <si>
+    <t>只记录开头结尾值，二次遍历更新</t>
+  </si>
+  <si>
+    <t>使用set记录前半段值</t>
+  </si>
+  <si>
+    <t>746. Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>750. Number Of Corner Rectangles</t>
+  </si>
+  <si>
+    <t>764. Largest Plus Sign</t>
+  </si>
+  <si>
+    <t>801. Minimum Swaps To Make Sequences Increasing</t>
+  </si>
+  <si>
+    <t>967. Numbers With Same Consecutive Differences</t>
+  </si>
+  <si>
+    <t>按行遍历，记录每行配对的i，j，n**2复杂度，再顺下，看配对个数，一共n**3复杂度</t>
+  </si>
+  <si>
+    <t>先横向left-right累加，再right-left累加，取最小值，左右order，再上下，得出答案 n**2</t>
+  </si>
+  <si>
+    <t>dfs尝试所有解法</t>
+  </si>
+  <si>
+    <t>402. Remove K Digits</t>
+  </si>
+  <si>
+    <t>358. Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>767. Reorganize String</t>
+  </si>
+  <si>
+    <t>435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>738. Monotone Increasing Digits</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>使用stack，只允许递增添加，若前方数大，先弹出再添加</t>
+  </si>
+  <si>
+    <t>先求词频，最大词频分成N个桶，累次叠加</t>
+  </si>
+  <si>
+    <t>k=2的特例</t>
+  </si>
+  <si>
+    <t>先排序，取最小end添加</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 保证累加序列添加，若不比前数大则弹出 然后-1添加，后数全部变为9</t>
+  </si>
+  <si>
+    <t>484. Find Permutation</t>
+  </si>
+  <si>
+    <t>659. Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>502. IPO</t>
+  </si>
+  <si>
+    <t>714. Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>掌握累加规律，使用stack，i的话弹栈输出，d入栈，直到碰到i</t>
+  </si>
+  <si>
+    <t>dfs超时，使用greedy，统计词频，有现成数字优先加入，没有再开辟新的</t>
+  </si>
+  <si>
+    <t>先重新排列组合，使用heap，在W&gt;0时将可以添加的项目都加入，累加资本，然后寻找下一轮可尝试的最大利润项目</t>
+  </si>
+  <si>
+    <t>两种状态，两个dp status，轮流互相操作</t>
+  </si>
+  <si>
+    <t>685. Redundant Connection II</t>
+  </si>
+  <si>
+    <t>623. Add One Row to Tree</t>
+  </si>
+  <si>
+    <t>841. Keys and Rooms</t>
+  </si>
+  <si>
+    <t>684. Redundant Connection</t>
+  </si>
+  <si>
+    <t>802. Find Eventual Safe States</t>
+  </si>
+  <si>
+    <t>765. Couples Holding Hands</t>
+  </si>
+  <si>
+    <t>547. Friend Circles</t>
+  </si>
+  <si>
+    <t>对图进行建树操作，可以dfs，一一排查，如果有已经建立好的节点在新的pair中出现连接现象，则失败，或者使用union find，归于同一root，若两点root相同且相连则fail</t>
+  </si>
+  <si>
+    <t>使用union find查找环，但前期需要先排查是否有一个点有两个root的情况，出现环时，删除其中一个root</t>
+  </si>
+  <si>
+    <t>染色法标记当前节点是否正在遍历，若是，则说明遇到了环</t>
+  </si>
+  <si>
+    <t>ai = ai+1 ^1</t>
+  </si>
+  <si>
+    <t>union find查找root数，或者bfs标记</t>
+  </si>
+  <si>
+    <t>417. Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>366. Find Leaves of Binary Tree</t>
+  </si>
+  <si>
+    <t>630. Course Schedule III</t>
+  </si>
+  <si>
+    <t>dfs暴力尝试可以，或者从四个边往里面翻牌子，一个点被翻到两次则说明此点可以</t>
+  </si>
+  <si>
+    <t>每遍历一遍删除一遍</t>
+  </si>
+  <si>
+    <t>greedy，按结束时间排序，依次添加，若不满足条件使用heap返回当前最大时间的课程，然后添加新课程</t>
+  </si>
+  <si>
+    <t>959. Regions Cut By Slashes</t>
+  </si>
+  <si>
+    <t>839. Similar String Groups</t>
+  </si>
+  <si>
+    <t>924. Minimize Malware Spread</t>
+  </si>
+  <si>
+    <t>928. Minimize Malware Spread II</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>每个方块分4部分，不同斜线union不同部分，同时union右侧与下侧，最后统计一共多少根</t>
+  </si>
+  <si>
+    <t>遍历，union，统计组数，交换一次 On，统计diff&lt;=2 即满足条件</t>
+  </si>
+  <si>
+    <t>只简单统计所有组数，若初始点中有两点在同一组，删除一个也无用，找只有一个在一组的，影响size最大，index最小</t>
+  </si>
+  <si>
+    <t>bfs遍历所有点，统计每个点会被那些init infect，然后统计有那些点只被一个点infect，该点count ++， 最后取此值最大的点</t>
+  </si>
+  <si>
+    <t>743. Network Delay Time</t>
+  </si>
+  <si>
+    <t>854. K-Similar Strings</t>
+  </si>
+  <si>
+    <t>968. Binary Tree Cameras</t>
+  </si>
+  <si>
+    <t>最小权重路径，dist数组记录所有点的最小到达时间，普通dfs遍历，每条路径尝试，若尝试的当前路径小于上次时间，则继续遍历更新，或使用Dijkstra算法，每次取最小点进行更新，存入vis数组，待找完所有点，即有最短路径，或使用heap，从开头放入，然后放入所有相邻节点，继而取出最小点，继续排查放入</t>
+  </si>
+  <si>
+    <t>dfs比较，只先取出两个字符串不一致字符比较，遍历进行swap尝试，mem记录当前pos需要的次数</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>自底向上，有孩子未被覆盖的优先级最高</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/yecuandu1534/article/details/80747209</t>
+  </si>
+  <si>
+    <t>847. Shortest Path Visiting All Nodes</t>
+  </si>
+  <si>
+    <t>990. Satisfiability of Equality Equations</t>
+  </si>
+  <si>
+    <t>524. Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>632. Smallest Range</t>
+  </si>
+  <si>
+    <t>每个字符比较</t>
+  </si>
+  <si>
+    <t>可以直接字符比较，使用ord提高速度</t>
+  </si>
+  <si>
+    <t>two point + slidewindow</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>348. Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>353. Design Snake Game</t>
+  </si>
+  <si>
+    <t>365. Water and Jug Problem</t>
+  </si>
+  <si>
+    <t>369. Plus One Linked List</t>
+  </si>
+  <si>
+    <t>逐行列判断，n2复杂度，记录各行列，两条对角线，两位选手分别加减1，谁先减到说明可以</t>
+  </si>
+  <si>
+    <t>不用全部判断，头部按规则迁移，直接去掉尾部便符合条件</t>
+  </si>
+  <si>
+    <t>求最大公约数</t>
+  </si>
+  <si>
+    <t>394. Decode String</t>
+  </si>
+  <si>
+    <t>726. Number of Atoms</t>
+  </si>
+  <si>
+    <t>735. Asteroid Collision</t>
+  </si>
+  <si>
+    <t>739. Daily Temperatures</t>
+  </si>
+  <si>
+    <t>373. Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>378. Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>找两个乱序的位置，inorder正常是有序的，若出现乱序，则此两处为错误位置</t>
+  </si>
+  <si>
+    <t>473. Matchsticks to Square</t>
+  </si>
+  <si>
+    <t>472. Concatenated Words</t>
+  </si>
+  <si>
+    <t>每个单词遍历查找是否可以由其它单词组成，每个单词的查找使用dp，每个位置进行遍历</t>
+  </si>
+  <si>
+    <t>846. Hand of Straights</t>
+  </si>
+  <si>
+    <t>904. Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>855. Exam Room</t>
+  </si>
+  <si>
+    <t>849. Maximize Distance to Closest Person</t>
+  </si>
+  <si>
+    <t>重组，连续</t>
+  </si>
+  <si>
+    <t>数组间距插入，依次算距离</t>
+  </si>
+  <si>
+    <t>763. Partition Labels</t>
+  </si>
+  <si>
+    <t>可以转化为求internal的题目</t>
+  </si>
+  <si>
+    <t>648. Replace Words</t>
+  </si>
+  <si>
+    <t>649. Dota2 Senate</t>
+  </si>
+  <si>
+    <t>407. Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>490. The Maze</t>
+  </si>
+  <si>
+    <t>505. The Maze II</t>
+  </si>
+  <si>
+    <t>391. Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/5825619.html</t>
+  </si>
+  <si>
+    <t>699. Falling Squares</t>
+  </si>
+  <si>
+    <t>916. Word Subsets</t>
+  </si>
+  <si>
+    <t>区间合并</t>
+  </si>
+  <si>
+    <t>找最大限制条件</t>
+  </si>
+  <si>
+    <t>593. Valid Square</t>
+  </si>
+  <si>
+    <t>775. Global and Local Inversions</t>
+  </si>
+  <si>
+    <t>425. Word Squares</t>
+  </si>
+  <si>
+    <t>759. Employee Free Time</t>
+  </si>
+  <si>
+    <t>842. Split Array into Fibonacci Sequence</t>
+  </si>
+  <si>
+    <t>611. Valid Triangle Number</t>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
+  </si>
+  <si>
+    <t>698. Partition to K Equal Sum Subsets</t>
+  </si>
+  <si>
+    <t>996. Number of Squareful Arrays</t>
+  </si>
+  <si>
+    <t>881. Boats to Save People</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +2616,61 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="KaTeX_Math"/>
+    </font>
+    <font>
+      <sz val="7.7"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7.7"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="KaTeX_Math"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.3"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.3"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="KaTeX_Math"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1673,7 +2696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,6 +2710,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1967,22 +2993,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N325"/>
+  <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="F323" sqref="F323"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="4" width="17.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +3036,7 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +3047,7 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +3061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2069,7 +3095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2100,7 +3126,7 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +3140,7 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +3157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +3171,7 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +3188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2176,7 +3202,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +3216,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +3230,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2221,7 +3247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +3261,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +3275,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +3289,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2277,7 +3303,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +3320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2308,7 +3334,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2322,7 +3348,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2336,7 +3362,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -2350,7 +3376,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2364,7 +3390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +3404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +3418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2403,7 +3429,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2414,7 +3440,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +3454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +3465,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +3479,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +3496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +3510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2495,7 +3521,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +3538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +3552,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +3566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2554,7 +3580,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +3594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2579,7 +3605,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +3616,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2604,7 +3630,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +3644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2629,7 +3655,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -2640,7 +3666,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +3683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +3700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2691,7 +3717,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -2705,7 +3731,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -2722,7 +3748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +3762,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -2750,7 +3776,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +3790,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +3810,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2801,7 +3827,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2821,7 +3847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -2835,7 +3861,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2855,7 +3881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2872,7 +3898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2889,7 +3915,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -2909,7 +3935,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -2929,7 +3955,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -2946,7 +3972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +3986,7 @@
         <v>43408</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +4000,7 @@
         <v>43408</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +4020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -3008,7 +4034,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -3028,7 +4054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -3045,7 +4071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -3062,7 +4088,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +4105,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +4122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -3116,7 +4142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +4159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3150,7 +4176,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3167,7 +4193,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +4210,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -3201,7 +4227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -3218,7 +4244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -3235,7 +4261,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -3252,7 +4278,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -3269,7 +4295,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -3286,7 +4312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -3297,7 +4323,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +4340,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +4357,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -3348,7 +4374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -3362,7 +4388,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -3379,7 +4405,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -3396,7 +4422,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
@@ -3413,7 +4439,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +4456,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +4473,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -3464,7 +4490,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -3481,7 +4507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
@@ -3498,7 +4524,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +4538,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -3529,7 +4555,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -3546,7 +4572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -3557,7 +4583,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -3568,7 +4594,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -3582,7 +4608,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
@@ -3593,7 +4619,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -3604,7 +4630,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +4641,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -3626,7 +4652,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
@@ -3637,7 +4663,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -3648,7 +4674,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -3659,7 +4685,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +4696,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -3681,7 +4707,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
@@ -3698,7 +4724,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -3712,7 +4738,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
@@ -3723,7 +4749,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +4763,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
@@ -3751,7 +4777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -3762,7 +4788,7 @@
         <v>43421</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -3776,7 +4802,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -3790,7 +4816,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -3804,7 +4830,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -3821,7 +4847,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -3838,7 +4864,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -3855,7 +4881,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -3872,7 +4898,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3889,7 +4915,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -3906,7 +4932,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -3920,7 +4946,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +4963,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -3954,7 +4980,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
@@ -3968,7 +4994,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -3982,7 +5008,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -3999,7 +5025,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -4013,7 +5039,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +5056,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -4047,7 +5073,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -4061,7 +5087,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
@@ -4075,7 +5101,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
@@ -4089,7 +5115,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -4106,7 +5132,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -4120,7 +5146,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -4134,7 +5160,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -4148,7 +5174,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -4162,7 +5188,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -4176,7 +5202,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -4190,7 +5216,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +5233,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>16</v>
       </c>
@@ -4221,7 +5247,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
@@ -4235,7 +5261,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +5278,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
         <v>10</v>
       </c>
@@ -4266,7 +5292,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -4280,7 +5306,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -4297,7 +5323,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
         <v>16</v>
       </c>
@@ -4311,7 +5337,7 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
         <v>10</v>
       </c>
@@ -4325,7 +5351,7 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
         <v>10</v>
       </c>
@@ -4342,7 +5368,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -4359,7 +5385,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
         <v>270</v>
       </c>
@@ -4376,7 +5402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
         <v>270</v>
       </c>
@@ -4393,7 +5419,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
@@ -4407,7 +5433,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
@@ -4424,7 +5450,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
@@ -4447,7 +5473,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -4464,7 +5490,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -4478,7 +5504,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
@@ -4492,7 +5518,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -4509,7 +5535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -4526,7 +5552,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
@@ -4543,7 +5569,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +5583,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +5600,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -4588,7 +5614,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>10</v>
       </c>
@@ -4602,7 +5628,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -4619,7 +5645,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +5659,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -4647,7 +5673,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -4658,7 +5684,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -4672,7 +5698,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +5712,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
@@ -4697,7 +5723,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -4708,7 +5734,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -4719,7 +5745,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -4733,7 +5759,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -4747,7 +5773,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
@@ -4761,7 +5787,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -4775,7 +5801,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -4792,7 +5818,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
@@ -4803,7 +5829,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
         <v>319</v>
       </c>
@@ -4814,7 +5840,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>319</v>
       </c>
@@ -4825,7 +5851,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -4839,7 +5865,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -4853,7 +5879,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
@@ -4867,7 +5893,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +5907,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -4895,7 +5921,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -4912,7 +5938,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -4926,7 +5952,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +5966,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -4954,7 +5980,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
@@ -4968,7 +5994,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -4982,7 +6008,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +6022,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
@@ -5010,7 +6036,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -5024,7 +6050,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
@@ -5038,7 +6064,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -5052,7 +6078,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
@@ -5063,7 +6089,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
@@ -5074,7 +6100,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -5088,7 +6114,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -5102,7 +6128,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -5113,7 +6139,7 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -5124,7 +6150,7 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
         <v>351</v>
       </c>
@@ -5138,7 +6164,7 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -5149,7 +6175,7 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
         <v>10</v>
       </c>
@@ -5163,7 +6189,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -5177,7 +6203,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +6214,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
@@ -5199,7 +6225,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -5213,7 +6239,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -5224,7 +6250,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -5238,7 +6264,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -5252,7 +6278,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -5263,7 +6289,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -5277,7 +6303,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12">
       <c r="A225" s="1" t="s">
         <v>10</v>
       </c>
@@ -5291,7 +6317,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
@@ -5302,7 +6328,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
@@ -5313,7 +6339,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -5330,7 +6356,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
@@ -5344,7 +6370,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -5364,7 +6390,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -5381,7 +6407,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" s="1" t="s">
         <v>10</v>
       </c>
@@ -5398,7 +6424,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" s="1" t="s">
         <v>16</v>
       </c>
@@ -5415,7 +6441,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
@@ -5429,7 +6455,7 @@
         <v>43443</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -5440,7 +6466,7 @@
         <v>43443</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
@@ -5454,7 +6480,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
@@ -5468,7 +6494,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
@@ -5479,7 +6505,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
@@ -5490,7 +6516,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" s="1" t="s">
         <v>16</v>
       </c>
@@ -5507,7 +6533,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
@@ -5518,7 +6544,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
@@ -5529,7 +6555,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -5540,7 +6566,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -5551,7 +6577,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
         <v>10</v>
       </c>
@@ -5565,7 +6591,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
         <v>10</v>
       </c>
@@ -5582,7 +6608,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -5593,7 +6619,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -5604,7 +6630,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -5615,7 +6641,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -5626,7 +6652,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
         <v>10</v>
       </c>
@@ -5640,7 +6666,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +6680,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +6694,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
         <v>10</v>
       </c>
@@ -5679,7 +6705,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -5690,7 +6716,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -5701,7 +6727,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -5718,7 +6744,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -5735,7 +6761,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -5746,7 +6772,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +6786,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -5774,7 +6800,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -5785,7 +6811,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -5799,7 +6825,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
         <v>10</v>
       </c>
@@ -5813,7 +6839,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +6853,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -5841,7 +6867,7 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -5855,7 +6881,7 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -5869,7 +6895,7 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
         <v>16</v>
       </c>
@@ -5883,7 +6909,7 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -5897,7 +6923,7 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
         <v>10</v>
       </c>
@@ -5914,7 +6940,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
@@ -5934,7 +6960,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14">
       <c r="A273" s="1" t="s">
         <v>16</v>
       </c>
@@ -5951,7 +6977,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -5968,7 +6994,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14">
       <c r="A275" s="1" t="s">
         <v>16</v>
       </c>
@@ -5985,7 +7011,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -5997,7 +7023,7 @@
       </c>
       <c r="N276" s="3"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14">
       <c r="A277" s="1" t="s">
         <v>16</v>
       </c>
@@ -6011,7 +7037,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14">
       <c r="A278" s="1" t="s">
         <v>10</v>
       </c>
@@ -6028,7 +7054,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14">
       <c r="A279" s="1" t="s">
         <v>16</v>
       </c>
@@ -6045,7 +7071,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -6056,7 +7082,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14">
       <c r="A281" s="1" t="s">
         <v>10</v>
       </c>
@@ -6073,7 +7099,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14">
       <c r="A282" s="1" t="s">
         <v>16</v>
       </c>
@@ -6090,7 +7116,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14">
       <c r="A283" s="1" t="s">
         <v>16</v>
       </c>
@@ -6107,7 +7133,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14">
       <c r="A284" s="1" t="s">
         <v>16</v>
       </c>
@@ -6124,7 +7150,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -6138,7 +7164,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14">
       <c r="A286" s="1" t="s">
         <v>10</v>
       </c>
@@ -6155,7 +7181,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
@@ -6169,7 +7195,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
@@ -6183,7 +7209,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
@@ -6194,7 +7220,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
@@ -6205,7 +7231,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
         <v>16</v>
       </c>
@@ -6222,7 +7248,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
@@ -6236,7 +7262,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
@@ -6250,7 +7276,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
@@ -6264,7 +7290,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
@@ -6275,7 +7301,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
         <v>10</v>
       </c>
@@ -6289,7 +7315,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
         <v>10</v>
       </c>
@@ -6306,7 +7332,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
@@ -6323,7 +7349,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
         <v>16</v>
       </c>
@@ -6340,7 +7366,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
@@ -6357,7 +7383,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
         <v>16</v>
       </c>
@@ -6371,7 +7397,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
@@ -6385,7 +7411,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303" s="1" t="s">
         <v>10</v>
       </c>
@@ -6402,7 +7428,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -6419,7 +7445,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305" s="1" t="s">
         <v>10</v>
       </c>
@@ -6436,7 +7462,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
@@ -6453,7 +7479,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -6470,7 +7496,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -6487,7 +7513,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309" s="1" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +7530,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310" s="1" t="s">
         <v>10</v>
       </c>
@@ -6521,7 +7547,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
         <v>10</v>
       </c>
@@ -6538,7 +7564,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312" s="1" t="s">
         <v>10</v>
       </c>
@@ -6555,7 +7581,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -6572,7 +7598,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
@@ -6589,7 +7615,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315" s="1" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +7632,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
@@ -6623,7 +7649,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
@@ -6640,7 +7666,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318" s="1" t="s">
         <v>10</v>
       </c>
@@ -6657,7 +7683,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319" s="1" t="s">
         <v>10</v>
       </c>
@@ -6674,7 +7700,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320" s="1" t="s">
         <v>10</v>
       </c>
@@ -6691,7 +7717,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
         <v>16</v>
       </c>
@@ -6702,7 +7728,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
         <v>16</v>
       </c>
@@ -6716,7 +7742,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -6730,7 +7756,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
         <v>10</v>
       </c>
@@ -6744,7 +7770,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -6753,6 +7779,1043 @@
       </c>
       <c r="E325" s="4">
         <v>43464</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="B326" t="s">
+        <v>537</v>
+      </c>
+      <c r="E326" s="4">
+        <v>43487</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="B327" t="s">
+        <v>538</v>
+      </c>
+      <c r="E327" s="4">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="B328" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E328" s="4">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="B329" t="s">
+        <v>542</v>
+      </c>
+      <c r="E329" s="4">
+        <v>43493</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="B330" t="s">
+        <v>543</v>
+      </c>
+      <c r="E330" s="4">
+        <v>43493</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="B331" t="s">
+        <v>544</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E331" s="4">
+        <v>43493</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="B332" t="s">
+        <v>545</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E332" s="4">
+        <v>43493</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="18">
+      <c r="B333" t="s">
+        <v>550</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E333" s="4">
+        <v>43494</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="B334" t="s">
+        <v>275</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E334" s="4">
+        <v>43494</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="19.5">
+      <c r="B335" t="s">
+        <v>551</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E335" s="4">
+        <v>43494</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="B336" t="s">
+        <v>556</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E336" s="4">
+        <v>43494</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6">
+      <c r="B337" t="s">
+        <v>558</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E337" s="4">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6">
+      <c r="B338" t="s">
+        <v>559</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E338" s="4">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6">
+      <c r="B339" t="s">
+        <v>560</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E339" s="4">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6">
+      <c r="B340" t="s">
+        <v>561</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E340" s="4">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6">
+      <c r="B341" t="s">
+        <v>563</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E341" s="4">
+        <v>43496</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6">
+      <c r="B342" t="s">
+        <v>564</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E342" s="4">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6">
+      <c r="B343" t="s">
+        <v>565</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E343" s="4">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6">
+      <c r="B344" t="s">
+        <v>566</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E344" s="4">
+        <v>43496</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6">
+      <c r="B345" t="s">
+        <v>562</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E345" s="4">
+        <v>43496</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6">
+      <c r="B346" t="s">
+        <v>569</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E346" s="4">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6">
+      <c r="B347" t="s">
+        <v>570</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E347" s="4">
+        <v>43498</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6">
+      <c r="B348" t="s">
+        <v>571</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E348" s="4">
+        <v>43498</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6">
+      <c r="B349" t="s">
+        <v>572</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E349" s="4">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6">
+      <c r="B350" t="s">
+        <v>573</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E350" s="4">
+        <v>43498</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6">
+      <c r="B351" t="s">
+        <v>577</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E351" s="4">
+        <v>43499</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6">
+      <c r="B352" t="s">
+        <v>578</v>
+      </c>
+      <c r="E352" s="4">
+        <v>43499</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6">
+      <c r="B353" t="s">
+        <v>579</v>
+      </c>
+      <c r="E353" s="4">
+        <v>43499</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6">
+      <c r="B354" t="s">
+        <v>580</v>
+      </c>
+      <c r="E354" s="4">
+        <v>43499</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6">
+      <c r="B355" t="s">
+        <v>581</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E355" s="4">
+        <v>43499</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6">
+      <c r="B356" t="s">
+        <v>588</v>
+      </c>
+      <c r="E356" s="4">
+        <v>43500</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6">
+      <c r="B357" t="s">
+        <v>589</v>
+      </c>
+      <c r="E357" s="4">
+        <v>43500</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6">
+      <c r="B358" t="s">
+        <v>590</v>
+      </c>
+      <c r="E358" s="4">
+        <v>43500</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6">
+      <c r="B359" t="s">
+        <v>591</v>
+      </c>
+      <c r="E359" s="4">
+        <v>43500</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6">
+      <c r="B360" t="s">
+        <v>596</v>
+      </c>
+      <c r="E360" s="4">
+        <v>43502</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6">
+      <c r="B361" t="s">
+        <v>597</v>
+      </c>
+      <c r="E361" s="4">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6">
+      <c r="B362" t="s">
+        <v>598</v>
+      </c>
+      <c r="E362" s="4">
+        <v>43502</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6">
+      <c r="B363" t="s">
+        <v>599</v>
+      </c>
+      <c r="E363" s="4">
+        <v>43501</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6">
+      <c r="B364" t="s">
+        <v>600</v>
+      </c>
+      <c r="E364" s="4">
+        <v>43501</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6">
+      <c r="B365" t="s">
+        <v>601</v>
+      </c>
+      <c r="E365" s="4">
+        <v>43502</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6">
+      <c r="B366" t="s">
+        <v>602</v>
+      </c>
+      <c r="E366" s="4">
+        <v>43502</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6">
+      <c r="B367" t="s">
+        <v>608</v>
+      </c>
+      <c r="E367" s="4">
+        <v>43503</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6">
+      <c r="B368" t="s">
+        <v>609</v>
+      </c>
+      <c r="E368" s="4">
+        <v>43503</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="369" spans="2:11">
+      <c r="B369" t="s">
+        <v>610</v>
+      </c>
+      <c r="E369" s="4">
+        <v>43503</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="370" spans="2:11">
+      <c r="B370" t="s">
+        <v>614</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E370" s="4">
+        <v>43504</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="371" spans="2:11">
+      <c r="B371" t="s">
+        <v>615</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E371" s="4">
+        <v>43504</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="372" spans="2:11">
+      <c r="B372" t="s">
+        <v>616</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E372" s="4">
+        <v>43504</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="373" spans="2:11">
+      <c r="B373" t="s">
+        <v>617</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E373" s="4">
+        <v>43504</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="374" spans="2:11">
+      <c r="B374" t="s">
+        <v>623</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E374" s="4">
+        <v>43505</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="375" spans="2:11">
+      <c r="B375" t="s">
+        <v>624</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E375" s="4">
+        <v>43505</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="K375" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="376" spans="2:11">
+      <c r="B376" t="s">
+        <v>625</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E376" s="4">
+        <v>43505</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="377" spans="2:11">
+      <c r="B377" t="s">
+        <v>631</v>
+      </c>
+      <c r="E377" s="4">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="378" spans="2:11">
+      <c r="B378" t="s">
+        <v>632</v>
+      </c>
+      <c r="E378" s="4">
+        <v>43506</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="379" spans="2:11">
+      <c r="B379" t="s">
+        <v>633</v>
+      </c>
+      <c r="E379" s="4">
+        <v>43506</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="380" spans="2:11">
+      <c r="B380" t="s">
+        <v>634</v>
+      </c>
+      <c r="E380" s="4">
+        <v>43506</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="381" spans="2:11">
+      <c r="B381" t="s">
+        <v>635</v>
+      </c>
+      <c r="E381" s="4">
+        <v>43506</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="382" spans="2:11">
+      <c r="B382" t="s">
+        <v>639</v>
+      </c>
+      <c r="E382" s="4">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="383" spans="2:11">
+      <c r="B383" t="s">
+        <v>640</v>
+      </c>
+      <c r="E383" s="4">
+        <v>43511</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="384" spans="2:11">
+      <c r="B384" t="s">
+        <v>641</v>
+      </c>
+      <c r="E384" s="4">
+        <v>43511</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6">
+      <c r="B385" t="s">
+        <v>642</v>
+      </c>
+      <c r="E385" s="4">
+        <v>43511</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6">
+      <c r="B386" t="s">
+        <v>643</v>
+      </c>
+      <c r="E386" s="4">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6">
+      <c r="B387" t="s">
+        <v>647</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E387" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6">
+      <c r="B388" t="s">
+        <v>648</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E388" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6">
+      <c r="B389" t="s">
+        <v>649</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E389" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6">
+      <c r="B390" t="s">
+        <v>650</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E390" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6">
+      <c r="B391" t="s">
+        <v>578</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E391" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6">
+      <c r="B392" t="s">
+        <v>651</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E392" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6">
+      <c r="B393" t="s">
+        <v>653</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E393" s="4">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6">
+      <c r="B394" t="s">
+        <v>223</v>
+      </c>
+      <c r="E394" s="4">
+        <v>43513</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6">
+      <c r="B395" t="s">
+        <v>655</v>
+      </c>
+      <c r="E395" s="4">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6">
+      <c r="B396" t="s">
+        <v>656</v>
+      </c>
+      <c r="E396" s="4">
+        <v>43513</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6">
+      <c r="B397" t="s">
+        <v>658</v>
+      </c>
+      <c r="E397" s="4">
+        <v>43514</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6">
+      <c r="B398" t="s">
+        <v>659</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" s="4">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6">
+      <c r="B399" t="s">
+        <v>660</v>
+      </c>
+      <c r="E399" s="4">
+        <v>43514</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6">
+      <c r="B400" t="s">
+        <v>661</v>
+      </c>
+      <c r="E400" s="4">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6">
+      <c r="B401" t="s">
+        <v>664</v>
+      </c>
+      <c r="E401" s="4">
+        <v>43514</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6">
+      <c r="B402" t="s">
+        <v>666</v>
+      </c>
+      <c r="E402" s="4">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6">
+      <c r="B403" t="s">
+        <v>667</v>
+      </c>
+      <c r="E403" s="4">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6">
+      <c r="B404" t="s">
+        <v>668</v>
+      </c>
+      <c r="E404" s="4">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6">
+      <c r="B405" t="s">
+        <v>669</v>
+      </c>
+      <c r="E405" s="4">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6">
+      <c r="B406" t="s">
+        <v>670</v>
+      </c>
+      <c r="E406" s="4">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6">
+      <c r="B407" t="s">
+        <v>671</v>
+      </c>
+      <c r="E407" s="4">
+        <v>43518</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6">
+      <c r="B408" t="s">
+        <v>673</v>
+      </c>
+      <c r="E408" s="4">
+        <v>43519</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6">
+      <c r="B409" t="s">
+        <v>674</v>
+      </c>
+      <c r="E409" s="4">
+        <v>43519</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6">
+      <c r="B410" t="s">
+        <v>677</v>
+      </c>
+      <c r="E410" s="4">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6">
+      <c r="B411" t="s">
+        <v>678</v>
+      </c>
+      <c r="E411" s="4">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6">
+      <c r="B412" t="s">
+        <v>679</v>
+      </c>
+      <c r="E412" s="4">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6">
+      <c r="B413" t="s">
+        <v>680</v>
+      </c>
+      <c r="E413" s="4">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6">
+      <c r="B414" t="s">
+        <v>681</v>
+      </c>
+      <c r="E414" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6">
+      <c r="B415" t="s">
+        <v>682</v>
+      </c>
+      <c r="E415" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6">
+      <c r="B416" t="s">
+        <v>683</v>
+      </c>
+      <c r="E416" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5">
+      <c r="B417" t="s">
+        <v>684</v>
+      </c>
+      <c r="E417" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5">
+      <c r="B418" t="s">
+        <v>685</v>
+      </c>
+      <c r="E418" s="4">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5">
+      <c r="B419" t="s">
+        <v>686</v>
+      </c>
+      <c r="E419" s="4">
+        <v>43521</v>
       </c>
     </row>
   </sheetData>
